--- a/Roadmap_for_I2C.xlsx
+++ b/Roadmap_for_I2C.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harish G\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609A7849-72D2-415A-AF13-0D9888136A71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Finalising Test Bench Architecture</t>
   </si>
   <si>
-    <t>Producing Result After Regression Testing</t>
-  </si>
-  <si>
     <t>Wrapping up the Project</t>
   </si>
   <si>
@@ -33,9 +36,6 @@
     <t>Listing all possible Test Cases</t>
   </si>
   <si>
-    <t>Completion of building Test Bench</t>
-  </si>
-  <si>
     <t>TOPIC</t>
   </si>
   <si>
@@ -43,12 +43,21 @@
   </si>
   <si>
     <t xml:space="preserve">Road-map for I2C </t>
+  </si>
+  <si>
+    <t>Setting up of Test bench</t>
+  </si>
+  <si>
+    <t>Completion of building Test bench</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,6 +99,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -138,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,9 +183,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,6 +235,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,10 +427,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -394,20 +442,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>43588</v>
@@ -415,7 +463,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>43594</v>
@@ -431,7 +479,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>43610</v>
@@ -439,7 +487,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>43626</v>
@@ -447,10 +495,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>43628</v>
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43632</v>
       </c>
     </row>
   </sheetData>
@@ -459,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -471,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
